--- a/update_wb_item.xlsx
+++ b/update_wb_item.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10164"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10170"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>код1с</t>
   </si>
@@ -35,22 +35,22 @@
     <t>описание новое</t>
   </si>
   <si>
-    <t>Карандаш зеленый обн1</t>
-  </si>
-  <si>
-    <t>Самые лучшие в мире карандаши.  обн1</t>
-  </si>
-  <si>
-    <t>Ручка синяя обн1</t>
-  </si>
-  <si>
-    <t>Самые клевые ручки на свете. обн1</t>
-  </si>
-  <si>
-    <t>Маркер обн1</t>
-  </si>
-  <si>
-    <t>Просто уникальные и самые распрекрасные маркеры. обн1</t>
+    <t>тест на ошибку</t>
+  </si>
+  <si>
+    <t>Карандаш зеленый обновление</t>
+  </si>
+  <si>
+    <t>Самые клевые ручки на свете. обновление</t>
+  </si>
+  <si>
+    <t>Маркер обновление</t>
+  </si>
+  <si>
+    <t>Просто уникальные и самые распрекрасные маркеры. обновление</t>
+  </si>
+  <si>
+    <t>error code</t>
   </si>
 </sst>
 </file>
@@ -369,19 +369,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,37 +392,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>603623</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>603624</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>603625</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
